--- a/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O512"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E18" t="n">
         <v>4.5</v>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3147,13 +3147,13 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Zwiebeln rot IP-Suisse - Online kein Bestand 1.40 Schweizer Franken</t>
+          <t>Zwiebeln rot IP-Suisse 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4105,13 +4105,13 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Champignons weiss - Online kein Bestand 2.85 Schweizer Franken</t>
+          <t>Champignons weiss 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -4986,13 +4986,13 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Ünique Peperoni ca. 1kg - Online kein Bestand 2.95 Schweizer Franken</t>
+          <t>Ünique Peperoni ca. 1kg 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7118,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15418,13 +15418,13 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Petersilienwurzel ca. 500g - Online kein Bestand 30% Aktion 3.00 Schweizer Franken statt 4.25 Schweizer Franken</t>
+          <t>Pro Specie Rara Petersilienwurzel ca. 500g 30% Aktion 3.00 Schweizer Franken statt 4.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17851,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18204,7 +18204,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19050,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19113,13 +19113,13 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Artischocke 1 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Artischocke 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19602,7 +19602,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21554,7 +21554,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21688,7 +21688,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -21989,7 +21989,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22549,7 +22549,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22831,13 +22831,13 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück - Online kein Bestand 2.85 Schweizer Franken</t>
+          <t>Fairtrade Papaya 1 Stück 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23519,7 +23519,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23588,7 +23588,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23783,7 +23783,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24216,10 +24216,10 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24402,7 +24402,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24690,7 +24690,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25124,7 +25124,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25258,7 +25258,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25394,13 +25394,13 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Shiitake-Pilze ca. 100g - Online kein Bestand 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Shiitake-Pilze ca. 100g 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25469,7 +25469,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25538,7 +25538,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25684,7 +25684,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26098,7 +26098,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26313,7 +26313,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26532,7 +26532,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27084,7 +27084,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27506,7 +27506,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27847,13 +27847,13 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Birnen Rocha IP-Suisse ca. 1kg - Online kein Bestand 4.50 Schweizer Franken</t>
+          <t>Birnen Rocha IP-Suisse ca. 1kg 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28125,7 +28125,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29135,7 +29135,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29612,7 +29612,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29904,7 +29904,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -29977,7 +29977,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30044,7 +30044,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30111,7 +30111,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30164,7 +30164,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30304,7 +30304,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30398,7 +30398,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -30446,7 +30446,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30588,7 +30588,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30876,7 +30876,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -30947,7 +30947,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31152,7 +31152,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31789,7 +31789,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31925,7 +31925,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -31998,7 +31998,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32063,7 +32063,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32136,7 +32136,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32201,7 +32201,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32268,7 +32268,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32337,7 +32337,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32481,7 +32481,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32550,7 +32550,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32678,7 +32678,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32747,7 +32747,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32816,7 +32816,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32879,7 +32879,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -32948,7 +32948,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33021,7 +33021,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33094,7 +33094,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33305,7 +33305,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33370,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33589,7 +33589,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33782,7 +33782,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33851,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34044,7 +34044,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34117,7 +34117,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34190,7 +34190,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34255,7 +34255,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34328,7 +34328,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34401,7 +34401,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34468,7 +34468,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34539,7 +34539,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34612,7 +34612,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34758,7 +34758,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34904,7 +34904,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -34977,7 +34977,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35048,7 +35048,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35121,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35186,7 +35186,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35255,7 +35255,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35328,7 +35328,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
@@ -35468,31 +35468,29 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>6984752</t>
+          <t>5756809</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
+          <t>Betty Bossi Kopfsalat mit Herzen</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
-        </is>
-      </c>
-      <c r="D510" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756809</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -35506,7 +35504,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -35516,7 +35514,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -35526,54 +35524,56 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N510" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Kopfsalat mit Herzen - Online kein Bestand 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>6845831</t>
+          <t>6984752</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Catalogna</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>1</v>
+      </c>
       <c r="E511" t="n">
-        <v>0</v>
-      </c>
-      <c r="F511" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -35583,7 +35583,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -35593,89 +35593,227 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>Catalogna 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N511" t="inlineStr"/>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-09 06:51:01</t>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>6845831</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Catalogna</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="n">
         <v>0</v>
       </c>
-      <c r="F512" t="inlineStr">
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>0.79/100g</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>Catalogna 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>2023-01-09 12:58:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>7065419</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+      <c r="F513" t="inlineStr">
         <is>
           <t>Coop</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
+      <c r="G513" t="inlineStr">
         <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
+      <c r="H513" t="inlineStr">
         <is>
           <t>2.75/100g</t>
         </is>
       </c>
-      <c r="I512" t="inlineStr">
+      <c r="I513" t="inlineStr">
         <is>
           <t>Preis pro 100 Gramm</t>
         </is>
       </c>
-      <c r="J512" t="inlineStr">
+      <c r="J513" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="K512" t="inlineStr">
+      <c r="K513" t="inlineStr">
         <is>
           <t>100g</t>
         </is>
       </c>
-      <c r="L512" t="inlineStr">
+      <c r="L513" t="inlineStr">
         <is>
           <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
-      <c r="M512" t="inlineStr">
+      <c r="M513" t="inlineStr">
         <is>
           <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
         </is>
       </c>
-      <c r="N512" t="inlineStr">
+      <c r="N513" t="inlineStr">
         <is>
           <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
-      <c r="O512" t="inlineStr">
-        <is>
-          <t>2023-01-09 06:51:01</t>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>2023-01-09 12:58:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>6693270</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Betty Bossi Zitrus Mix</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2.33/100g</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>Betty Bossi Zitrus Mix - Online kein Bestand 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>2023-01-09 12:58:58</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7118,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17851,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18204,7 +18204,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19050,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19119,7 +19119,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19602,7 +19602,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21554,7 +21554,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21688,7 +21688,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -21989,7 +21989,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22549,7 +22549,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22837,7 +22837,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23519,7 +23519,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23588,7 +23588,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23783,7 +23783,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24264,7 +24264,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24402,7 +24402,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24690,7 +24690,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25124,7 +25124,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25258,7 +25258,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25400,7 +25400,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25469,7 +25469,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25538,7 +25538,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25684,7 +25684,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26098,7 +26098,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26313,7 +26313,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26532,7 +26532,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27084,7 +27084,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27506,7 +27506,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27853,7 +27853,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28125,7 +28125,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29135,7 +29135,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29612,7 +29612,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29904,7 +29904,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -29977,7 +29977,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30044,7 +30044,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30111,7 +30111,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30164,7 +30164,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30304,7 +30304,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30588,7 +30588,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30876,7 +30876,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -30947,7 +30947,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31152,7 +31152,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31789,7 +31789,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31925,7 +31925,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -31998,7 +31998,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32063,7 +32063,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32136,7 +32136,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32201,7 +32201,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32268,7 +32268,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32337,7 +32337,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32481,7 +32481,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32550,7 +32550,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32678,7 +32678,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32747,7 +32747,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32816,7 +32816,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32879,7 +32879,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -32948,7 +32948,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33021,7 +33021,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33094,7 +33094,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33305,7 +33305,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33370,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33589,7 +33589,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33782,7 +33782,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33851,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34044,7 +34044,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34117,7 +34117,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34190,7 +34190,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34255,7 +34255,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34328,7 +34328,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34401,7 +34401,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34468,7 +34468,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34539,7 +34539,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34612,7 +34612,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34758,7 +34758,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34904,7 +34904,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -34977,7 +34977,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35048,7 +35048,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35121,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35186,7 +35186,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35255,7 +35255,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35328,7 +35328,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35535,7 +35535,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35608,7 +35608,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35671,7 +35671,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35742,7 +35742,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>
@@ -35813,7 +35813,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-09 12:58:58</t>
+          <t>2023-01-09 14:20:15</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7118,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17851,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18018,7 +18018,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E259" t="n">
         <v>4.5</v>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18204,7 +18204,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19050,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19119,7 +19119,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19602,7 +19602,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21554,7 +21554,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21688,7 +21688,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -21989,7 +21989,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22549,7 +22549,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22837,7 +22837,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23519,7 +23519,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23588,7 +23588,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23783,7 +23783,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24264,7 +24264,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24402,7 +24402,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24690,7 +24690,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25124,7 +25124,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25258,7 +25258,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25400,7 +25400,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25469,7 +25469,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25538,7 +25538,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25684,7 +25684,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26098,7 +26098,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26313,7 +26313,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26532,7 +26532,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27084,7 +27084,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27506,7 +27506,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27853,7 +27853,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28125,7 +28125,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29135,7 +29135,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29612,7 +29612,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29904,7 +29904,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -29977,7 +29977,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30044,7 +30044,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30111,7 +30111,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30164,7 +30164,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30304,7 +30304,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30588,7 +30588,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30876,7 +30876,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -30947,7 +30947,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31152,7 +31152,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31789,7 +31789,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31882,9 +31882,11 @@
           <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-diwa-i-ip-suisse-ca/p/7059246</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr"/>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
@@ -31925,7 +31927,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -31998,7 +32000,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32063,7 +32065,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32136,7 +32138,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32201,7 +32203,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32268,7 +32270,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32337,7 +32339,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32410,7 +32412,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32481,7 +32483,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32550,7 +32552,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32615,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32678,7 +32680,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32747,7 +32749,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32816,7 +32818,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32879,7 +32881,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -32948,7 +32950,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33021,7 +33023,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33094,7 +33096,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33167,7 +33169,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33240,7 +33242,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33305,7 +33307,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33372,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33445,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33516,7 +33518,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33589,7 +33591,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33662,7 +33664,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33715,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33782,7 +33784,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33853,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33922,7 +33924,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -33979,7 +33981,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34044,7 +34046,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34117,7 +34119,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34190,7 +34192,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34255,7 +34257,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34328,7 +34330,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34401,7 +34403,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34468,7 +34470,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34539,7 +34541,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34612,7 +34614,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34687,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34758,7 +34760,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34831,7 +34833,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34904,7 +34906,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -34977,7 +34979,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35048,7 +35050,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35123,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35186,7 +35188,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35255,7 +35257,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35328,7 +35330,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35399,7 +35401,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35470,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35535,7 +35537,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35608,7 +35610,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35671,7 +35673,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35742,7 +35744,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>
@@ -35813,7 +35815,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-09 14:20:15</t>
+          <t>2023-01-09 15:15:25</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7118,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9314,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16516,7 +16516,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17352,7 +17352,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17851,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18204,7 +18204,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18624,7 +18624,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19050,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19113,13 +19113,13 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Artischocke 1 Stück 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Artischocke 1 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19261,7 +19261,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19602,7 +19602,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19740,7 +19740,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20223,7 +20223,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20442,7 +20442,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20653,7 +20653,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20789,7 +20789,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20852,7 +20852,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21197,7 +21197,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21412,7 +21412,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21554,7 +21554,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21688,7 +21688,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -21989,7 +21989,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22549,7 +22549,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22837,7 +22837,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23519,7 +23519,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23588,7 +23588,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23783,7 +23783,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23919,7 +23919,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -23992,7 +23992,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24061,7 +24061,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24264,7 +24264,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24337,7 +24337,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24402,7 +24402,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24690,7 +24690,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25124,7 +25124,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25258,7 +25258,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25400,7 +25400,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25469,7 +25469,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25538,7 +25538,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25684,7 +25684,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25818,7 +25818,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26029,7 +26029,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26098,7 +26098,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26313,7 +26313,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26386,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26532,7 +26532,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26747,7 +26747,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26893,7 +26893,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27015,7 +27015,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27084,7 +27084,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27506,7 +27506,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27853,7 +27853,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28125,7 +28125,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28555,7 +28555,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28628,7 +28628,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28701,7 +28701,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29135,7 +29135,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29273,7 +29273,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29612,7 +29612,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29758,7 +29758,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29904,7 +29904,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -29977,7 +29977,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30044,7 +30044,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30111,7 +30111,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30164,7 +30164,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30304,7 +30304,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30446,7 +30446,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30588,7 +30588,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30876,7 +30876,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -30947,7 +30947,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31083,7 +31083,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31152,7 +31152,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31290,7 +31290,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31578,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31651,7 +31651,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31789,7 +31789,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -31927,7 +31927,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32065,7 +32065,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32138,7 +32138,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32203,7 +32203,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32270,7 +32270,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32339,7 +32339,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32412,7 +32412,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32483,7 +32483,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32552,7 +32552,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32615,7 +32615,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32680,7 +32680,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32749,7 +32749,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32818,7 +32818,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32881,7 +32881,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -32950,7 +32950,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33023,7 +33023,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33096,7 +33096,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33307,7 +33307,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33372,7 +33372,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33518,7 +33518,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33591,7 +33591,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33664,7 +33664,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33784,7 +33784,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33853,7 +33853,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33924,7 +33924,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -33981,7 +33981,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34046,7 +34046,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34119,7 +34119,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34192,7 +34192,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34257,7 +34257,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34330,7 +34330,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34403,7 +34403,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34470,7 +34470,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34541,7 +34541,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34614,7 +34614,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34687,7 +34687,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34760,7 +34760,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34833,7 +34833,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34906,7 +34906,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -34979,7 +34979,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35050,7 +35050,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35188,7 +35188,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35257,7 +35257,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35330,7 +35330,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35401,7 +35401,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35470,7 +35470,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35537,7 +35537,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35610,7 +35610,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35673,7 +35673,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35744,7 +35744,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
@@ -35815,7 +35815,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-09 15:15:25</t>
+          <t>2023-01-09 16:02:42</t>
         </is>
       </c>
     </row>
